--- a/CurrentCard/REV20200830C/CurrentSensorBoard_BOM.xlsx
+++ b/CurrentCard/REV20200830C/CurrentSensorBoard_BOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Space\GitHub\SensorCard\CurrentCard\REV20200830C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\severson-07-admin\Documents\SensorCard\CurrentCard\REV20200830C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B24927D-F53C-40E5-9007-B094D068CE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="16305" windowHeight="12000" xr2:uid="{5124C924-1064-4832-BBFD-8907C015B454}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="16305" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentSensorBoard_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,9 +172,6 @@
     <t>P10KDBCT-ND</t>
   </si>
   <si>
-    <t>Res 0603</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
@@ -231,12 +227,15 @@
   </si>
   <si>
     <t>296-24505-1-ND</t>
+  </si>
+  <si>
+    <t>Burden resistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,14 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C89222F-1F16-4573-8A23-4925C609F5C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A2:A23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,13 +847,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -862,13 +861,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -876,13 +875,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -893,10 +892,10 @@
         <v>5004</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D20" s="1">
         <v>7</v>
@@ -904,13 +903,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -918,13 +917,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -932,13 +931,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
